--- a/NopCommerce/DataExcel/db_register.xlsx
+++ b/NopCommerce/DataExcel/db_register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KATALON DRIVE\Katalon Project NOPCommerce\NopCommerce\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7F13A-0DB6-46DA-A316-810E522D0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E8EA16-308B-4BD8-918D-2E3EA24C8174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C84E517D-D4BE-4516-99B1-1A004AE750C8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>gender</t>
   </si>
@@ -124,14 +124,26 @@
     <t>Lepkom@123</t>
   </si>
   <si>
-    <t>rhhezkyillma@gmail.com</t>
+    <t>@#$_</t>
+  </si>
+  <si>
+    <t>1####</t>
+  </si>
+  <si>
+    <t>12@@</t>
+  </si>
+  <si>
+    <t>1232@gmail.com</t>
+  </si>
+  <si>
+    <t>reezkyillmaa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +155,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,9 +187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE42B676-BEFC-4548-A205-86FEF757D7DB}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,10 +566,10 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
@@ -565,19 +584,56 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>1991</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{F03698FE-52E6-4ABD-AC4A-C283A3E01EF9}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{A4517D7B-CC8E-4321-B0D4-007DF6B8DA77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{A4517D7B-CC8E-4321-B0D4-007DF6B8DA77}">
       <formula1>"Ya,Tidak"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{2C45C1B9-91E0-4E1A-80A3-F61C9597E90B}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{DAE9EA14-2440-492C-94CF-DCA865E071B2}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{1A1727C4-7AE9-4BCC-B36C-E961BEC55EE5}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{DAE9EA14-2440-492C-94CF-DCA865E071B2}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{1A1727C4-7AE9-4BCC-B36C-E961BEC55EE5}"/>
+    <hyperlink ref="B3" r:id="rId3" display="12@" xr:uid="{B74F4CFA-E419-427F-9966-CAC685CE257D}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{C3C67D0A-55FF-4E13-AE98-2CDF5A390829}"/>
+    <hyperlink ref="J3" r:id="rId5" xr:uid="{9645369B-2131-4AB0-BBB3-97CD5BAFD7CE}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{5BFCDA0C-7E6C-4B87-8C08-AB5B38206845}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{8ACE0B79-AE16-4E00-8C4A-09F6D9B587BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -587,19 +643,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B59CD2E-D9FC-4F54-98DE-57F040D15B6B}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18AD8418-BB7C-43D5-8776-BC0298E78A2C}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$57</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
